--- a/C语言课程讲义_笔记/B站鹏哥/2024_7_5 P_65 扫雷游戏.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_7_5 P_65 扫雷游戏.xlsx
@@ -70,6 +70,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>675407</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="866775"/>
+          <a:ext cx="6942857" cy="2000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,7 +405,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -370,6 +413,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
